--- a/data/employment_pop_ratio_age_native_men.xlsx
+++ b/data/employment_pop_ratio_age_native_men.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="127" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="128" uniqueCount="7">
   <si>
     <t>year</t>
   </si>
@@ -79,7 +79,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -104,7 +104,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>17.053550720214844</v>
+        <v>0.68583828210830689</v>
       </c>
     </row>
     <row r="3">
@@ -115,7 +115,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>17.511360168457031</v>
+        <v>0.7021033763885498</v>
       </c>
     </row>
     <row r="4">
@@ -126,7 +126,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>17.911149978637695</v>
+        <v>0.71381008625030518</v>
       </c>
     </row>
     <row r="5">
@@ -137,7 +137,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>17.843685150146484</v>
+        <v>0.71086102724075317</v>
       </c>
     </row>
     <row r="6">
@@ -148,7 +148,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>17.422412872314453</v>
+        <v>0.69916272163391113</v>
       </c>
     </row>
     <row r="7">
@@ -159,7 +159,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>17.714859008789063</v>
+        <v>0.70922994613647461</v>
       </c>
     </row>
     <row r="8">
@@ -170,7 +170,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>17.882589340209961</v>
+        <v>0.7141759991645813</v>
       </c>
     </row>
     <row r="9">
@@ -181,7 +181,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>17.635221481323242</v>
+        <v>0.70355790853500366</v>
       </c>
     </row>
     <row r="10">
@@ -192,7 +192,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>17.257646560668945</v>
+        <v>0.69274038076400757</v>
       </c>
     </row>
     <row r="11">
@@ -203,7 +203,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>17.725152969360352</v>
+        <v>0.70970004796981812</v>
       </c>
     </row>
     <row r="12">
@@ -214,7 +214,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>17.939950942993164</v>
+        <v>0.71655577421188354</v>
       </c>
     </row>
     <row r="13">
@@ -225,7 +225,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>17.710393905639648</v>
+        <v>0.70626479387283325</v>
       </c>
     </row>
     <row r="14">
@@ -236,7 +236,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>17.293758392333984</v>
+        <v>0.69495421648025513</v>
       </c>
     </row>
     <row r="15">
@@ -247,7 +247,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>17.783409118652344</v>
+        <v>0.71262413263320923</v>
       </c>
     </row>
     <row r="16">
@@ -258,7 +258,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>17.991323471069336</v>
+        <v>0.71764969825744629</v>
       </c>
     </row>
     <row r="17">
@@ -269,7 +269,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>17.810060501098633</v>
+        <v>0.70982038974761963</v>
       </c>
     </row>
     <row r="18">
@@ -280,7 +280,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>17.397676467895508</v>
+        <v>0.6988186240196228</v>
       </c>
     </row>
     <row r="19">
@@ -291,7 +291,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>17.915477752685547</v>
+        <v>0.7173888087272644</v>
       </c>
     </row>
     <row r="20">
@@ -302,7 +302,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>18.051336288452148</v>
+        <v>0.72106152772903442</v>
       </c>
     </row>
     <row r="21">
@@ -313,7 +313,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="1">
-        <v>17.88947868347168</v>
+        <v>0.71282082796096802</v>
       </c>
     </row>
     <row r="22">
@@ -324,7 +324,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>17.445894241333008</v>
+        <v>0.7009350061416626</v>
       </c>
     </row>
     <row r="23">
@@ -335,7 +335,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>17.804798126220703</v>
+        <v>0.71291142702102661</v>
       </c>
     </row>
     <row r="24">
@@ -346,7 +346,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>18.107780456542969</v>
+        <v>0.72139817476272583</v>
       </c>
     </row>
     <row r="25">
@@ -357,7 +357,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="1">
-        <v>17.812496185302734</v>
+        <v>0.71149265766143799</v>
       </c>
     </row>
     <row r="26">
@@ -368,7 +368,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>17.498527526855469</v>
+        <v>0.70248675346374512</v>
       </c>
     </row>
     <row r="27">
@@ -379,7 +379,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>17.827430725097656</v>
+        <v>0.71366161108016968</v>
       </c>
     </row>
     <row r="28">
@@ -390,7 +390,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>18.034589767456055</v>
+        <v>0.71941894292831421</v>
       </c>
     </row>
     <row r="29">
@@ -401,7 +401,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="1">
-        <v>17.726711273193359</v>
+        <v>0.70787030458450317</v>
       </c>
     </row>
     <row r="30">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>17.331708908081055</v>
+        <v>0.69608175754547119</v>
       </c>
     </row>
     <row r="31">
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>17.588245391845703</v>
+        <v>0.70456182956695557</v>
       </c>
     </row>
     <row r="32">
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>17.734704971313477</v>
+        <v>0.70750176906585693</v>
       </c>
     </row>
     <row r="33">
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>17.302148818969727</v>
+        <v>0.69013029336929321</v>
       </c>
     </row>
     <row r="34">
@@ -456,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>16.87535285949707</v>
+        <v>0.67753171920776367</v>
       </c>
     </row>
     <row r="35">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>17.286539077758789</v>
+        <v>0.69210803508758545</v>
       </c>
     </row>
     <row r="36">
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>17.488246917724609</v>
+        <v>0.69773513078689575</v>
       </c>
     </row>
     <row r="37">
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="1">
-        <v>17.137702941894531</v>
+        <v>0.68408024311065674</v>
       </c>
     </row>
     <row r="38">
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>16.747467041015625</v>
+        <v>0.67162418365478516</v>
       </c>
     </row>
     <row r="39">
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>16.98246955871582</v>
+        <v>0.68068492412567139</v>
       </c>
     </row>
     <row r="40">
@@ -522,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>17.169944763183594</v>
+        <v>0.68538528680801392</v>
       </c>
     </row>
     <row r="41">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="1">
-        <v>17.056119918823242</v>
+        <v>0.68051356077194214</v>
       </c>
     </row>
     <row r="42">
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="1">
-        <v>16.693840026855469</v>
+        <v>0.67056345939636231</v>
       </c>
     </row>
     <row r="43">
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>16.92048454284668</v>
+        <v>0.67923486232757568</v>
       </c>
     </row>
     <row r="44">
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>17.245363235473633</v>
+        <v>0.68797606229782105</v>
       </c>
     </row>
     <row r="45">
@@ -577,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="1">
-        <v>17.100624084472656</v>
+        <v>0.68057835102081299</v>
       </c>
     </row>
     <row r="46">
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>16.658380508422852</v>
+        <v>0.66929811239242554</v>
       </c>
     </row>
     <row r="47">
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="1">
-        <v>17.146329879760742</v>
+        <v>0.68755227327346802</v>
       </c>
     </row>
     <row r="48">
@@ -610,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>17.413938522338867</v>
+        <v>0.69367820024490356</v>
       </c>
     </row>
     <row r="49">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="1">
-        <v>17.149448394775391</v>
+        <v>0.6840972900390625</v>
       </c>
     </row>
     <row r="50">
@@ -632,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="1">
-        <v>16.849021911621094</v>
+        <v>0.67626363039016724</v>
       </c>
     </row>
     <row r="51">
@@ -643,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>17.226171493530273</v>
+        <v>0.69003230333328247</v>
       </c>
     </row>
     <row r="52">
@@ -654,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>17.38433837890625</v>
+        <v>0.69472742080688477</v>
       </c>
     </row>
     <row r="53">
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>17.230615615844727</v>
+        <v>0.68654382228851318</v>
       </c>
     </row>
     <row r="54">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="1">
-        <v>16.824270248413086</v>
+        <v>0.67433375120162964</v>
       </c>
     </row>
     <row r="55">
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="1">
-        <v>17.144353866577149</v>
+        <v>0.68759328126907349</v>
       </c>
     </row>
     <row r="56">
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>17.202884674072266</v>
+        <v>0.68803995847702026</v>
       </c>
     </row>
     <row r="57">
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="1">
-        <v>17.090114593505859</v>
+        <v>0.68051499128341675</v>
       </c>
     </row>
     <row r="58">
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="1">
-        <v>16.648418426513672</v>
+        <v>0.6679147481918335</v>
       </c>
     </row>
     <row r="59">
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="1">
-        <v>16.898797988891602</v>
+        <v>0.67764937877655029</v>
       </c>
     </row>
     <row r="60">
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>16.895458221435547</v>
+        <v>0.67497211694717407</v>
       </c>
     </row>
     <row r="61">
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>16.542808532714844</v>
+        <v>0.65894508361816406</v>
       </c>
     </row>
     <row r="62">
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="1">
-        <v>15.786715507507324</v>
+        <v>0.63273561000823975</v>
       </c>
     </row>
     <row r="63">
@@ -775,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="C63" s="1">
-        <v>15.850300788879395</v>
+        <v>0.63408064842224121</v>
       </c>
     </row>
     <row r="64">
@@ -786,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="1">
-        <v>15.919601440429688</v>
+        <v>0.63639622926712036</v>
       </c>
     </row>
     <row r="65">
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="1">
-        <v>15.556171417236328</v>
+        <v>0.62132388353347778</v>
       </c>
     </row>
     <row r="66">
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="1">
-        <v>15.265002250671387</v>
+        <v>0.61148518323898316</v>
       </c>
     </row>
     <row r="67">
@@ -819,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="1">
-        <v>15.600126266479492</v>
+        <v>0.62469345331192017</v>
       </c>
     </row>
     <row r="68">
@@ -830,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="1">
-        <v>15.772538185119629</v>
+        <v>0.63127321004867554</v>
       </c>
     </row>
     <row r="69">
@@ -841,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="1">
-        <v>15.61894702911377</v>
+        <v>0.622810959815979</v>
       </c>
     </row>
     <row r="70">
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="1">
-        <v>15.316906929016113</v>
+        <v>0.61417454481124878</v>
       </c>
     </row>
     <row r="71">
@@ -863,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="1">
-        <v>15.611624717712402</v>
+        <v>0.62530273199081421</v>
       </c>
     </row>
     <row r="72">
@@ -874,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="1">
-        <v>15.765806198120117</v>
+        <v>0.63046318292617798</v>
       </c>
     </row>
     <row r="73">
@@ -885,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="1">
-        <v>15.748565673828125</v>
+        <v>0.62774133682250977</v>
       </c>
     </row>
     <row r="74">
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>15.43547534942627</v>
+        <v>0.62006700038909912</v>
       </c>
     </row>
     <row r="75">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="1">
-        <v>15.788475036621094</v>
+        <v>0.6319393515586853</v>
       </c>
     </row>
     <row r="76">
@@ -918,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="1">
-        <v>15.912940979003906</v>
+        <v>0.63616019487380981</v>
       </c>
     </row>
     <row r="77">
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="1">
-        <v>15.88660717010498</v>
+        <v>0.63272374868392944</v>
       </c>
     </row>
     <row r="78">
@@ -940,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="1">
-        <v>15.425923347473145</v>
+        <v>0.62002193927764893</v>
       </c>
     </row>
     <row r="79">
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="1">
-        <v>15.741893768310547</v>
+        <v>0.62975424528121948</v>
       </c>
     </row>
     <row r="80">
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="1">
-        <v>15.86107063293457</v>
+        <v>0.63348495960235596</v>
       </c>
     </row>
     <row r="81">
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="1">
-        <v>15.663905143737793</v>
+        <v>0.62441098690032959</v>
       </c>
     </row>
     <row r="82">
@@ -984,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="1">
-        <v>15.469640731811523</v>
+        <v>0.61865407228469849</v>
       </c>
     </row>
     <row r="83">
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="1">
-        <v>15.900487899780273</v>
+        <v>0.63500791788101196</v>
       </c>
     </row>
     <row r="84">
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="1">
-        <v>15.958877563476563</v>
+        <v>0.63858497142791748</v>
       </c>
     </row>
     <row r="85">
@@ -1017,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="1">
-        <v>15.752877235412598</v>
+        <v>0.6310199499130249</v>
       </c>
     </row>
     <row r="86">
@@ -1028,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="1">
-        <v>15.612651824951172</v>
+        <v>0.62715482711791992</v>
       </c>
     </row>
     <row r="87">
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="1">
-        <v>16.025671005249024</v>
+        <v>0.64172071218490601</v>
       </c>
     </row>
     <row r="88">
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="1">
-        <v>16.081832885742188</v>
+        <v>0.64186692237854004</v>
       </c>
     </row>
     <row r="89">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="1">
-        <v>15.870273590087891</v>
+        <v>0.63284462690353394</v>
       </c>
     </row>
     <row r="90">
@@ -1072,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="1">
-        <v>15.790193557739258</v>
+        <v>0.63406985998153687</v>
       </c>
     </row>
     <row r="91">
@@ -1083,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="1">
-        <v>16.120824813842774</v>
+        <v>0.64463752508163452</v>
       </c>
     </row>
     <row r="92">
@@ -1094,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="1">
-        <v>16.189870834350586</v>
+        <v>0.64712673425674439</v>
       </c>
     </row>
     <row r="93">
@@ -1105,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="1">
-        <v>16.000104904174805</v>
+        <v>0.6381801962852478</v>
       </c>
     </row>
     <row r="94">
@@ -1116,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="1">
-        <v>15.833977699279785</v>
+        <v>0.63562721014022827</v>
       </c>
     </row>
     <row r="95">
@@ -1127,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="C95" s="1">
-        <v>16.110498428344727</v>
+        <v>0.64571774005889893</v>
       </c>
     </row>
     <row r="96">
@@ -1138,7 +1138,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="1">
-        <v>16.263448715209961</v>
+        <v>0.64973276853561401</v>
       </c>
     </row>
     <row r="97">
@@ -1149,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="1">
-        <v>16.143426895141602</v>
+        <v>0.64294332265853882</v>
       </c>
     </row>
     <row r="98">
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="1">
-        <v>15.972140312194824</v>
+        <v>0.64148777723312378</v>
       </c>
     </row>
     <row r="99">
@@ -1171,7 +1171,7 @@
         <v>3</v>
       </c>
       <c r="C99" s="1">
-        <v>16.206432342529297</v>
+        <v>0.64961987733840942</v>
       </c>
     </row>
     <row r="100">
@@ -1182,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="C100" s="1">
-        <v>16.28141975402832</v>
+        <v>0.65015608072280884</v>
       </c>
     </row>
     <row r="101">
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="1">
-        <v>16.225139617919922</v>
+        <v>0.64612311124801636</v>
       </c>
     </row>
     <row r="102">
@@ -1204,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="C102" s="1">
-        <v>15.953964233398438</v>
+        <v>0.64190322160720825</v>
       </c>
     </row>
     <row r="103">
@@ -1215,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="C103" s="1">
-        <v>16.181552886962891</v>
+        <v>0.64956015348434448</v>
       </c>
     </row>
     <row r="104">
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="C104" s="1">
-        <v>16.487764358520508</v>
+        <v>0.6572611927986145</v>
       </c>
     </row>
     <row r="105">
@@ -1237,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="1">
-        <v>16.322620391845703</v>
+        <v>0.64904600381851196</v>
       </c>
     </row>
     <row r="106">
@@ -1248,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="1">
-        <v>15.845485687255859</v>
+        <v>0.63768696784973145</v>
       </c>
     </row>
     <row r="107">
@@ -1259,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="1">
-        <v>14.426911354064941</v>
+        <v>0.57703787088394165</v>
       </c>
     </row>
     <row r="108">
@@ -1270,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="C108" s="1">
-        <v>15.249655723571777</v>
+        <v>0.60855019092559815</v>
       </c>
     </row>
     <row r="109">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="1">
-        <v>15.381292343139648</v>
+        <v>0.61298191547393799</v>
       </c>
     </row>
     <row r="110">
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="C110" s="1">
-        <v>15.138177871704102</v>
+        <v>0.60654222965240479</v>
       </c>
     </row>
     <row r="111">
@@ -1303,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="C111" s="1">
-        <v>15.512309074401855</v>
+        <v>0.61916482448577881</v>
       </c>
     </row>
     <row r="112">
@@ -1314,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C112" s="1">
-        <v>15.794604301452637</v>
+        <v>0.63172799348831177</v>
       </c>
     </row>
     <row r="113">
@@ -1325,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="1">
-        <v>15.754432678222656</v>
+        <v>0.63053250312805176</v>
       </c>
     </row>
     <row r="114">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="1">
-        <v>15.754757881164551</v>
+        <v>0.63009864091873169</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="C115" s="1">
-        <v>16.011785507202148</v>
+        <v>0.64006710052490234</v>
       </c>
     </row>
     <row r="116">
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="1">
-        <v>16.112234115600586</v>
+        <v>0.64360618591308594</v>
       </c>
     </row>
     <row r="117">
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="1">
-        <v>15.940580368041992</v>
+        <v>0.63899135589599609</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="C118" s="1">
-        <v>15.848071098327637</v>
+        <v>0.63572704792022705</v>
       </c>
     </row>
     <row r="119">
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="1">
-        <v>15.978231430053711</v>
+        <v>0.63924878835678101</v>
       </c>
     </row>
     <row r="120">
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="C120" s="1">
-        <v>16.062294006347656</v>
+        <v>0.6409880518913269</v>
       </c>
     </row>
     <row r="121">
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="C121" s="1">
-        <v>15.949472427368164</v>
+        <v>0.63753980398178101</v>
       </c>
     </row>
     <row r="122">
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="1">
-        <v>15.662374496459961</v>
+        <v>0.62883508205413818</v>
       </c>
     </row>
     <row r="123">
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="C123" s="1">
-        <v>15.878681182861328</v>
+        <v>0.63504940271377563</v>
       </c>
     </row>
     <row r="124">
@@ -1446,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="C124" s="1">
-        <v>15.907985687255859</v>
+        <v>0.6358795166015625</v>
       </c>
     </row>
     <row r="125">
@@ -1457,7 +1457,18 @@
         <v>5</v>
       </c>
       <c r="C125" s="1">
-        <v>15.871655464172363</v>
+        <v>0.63304954767227173</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.6259007453918457</v>
       </c>
     </row>
   </sheetData>
